--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2068530.919291378</v>
+        <v>2062668.599256198</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791249</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8687132.967979988</v>
+        <v>8685953.00919915</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80.20992778553433</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>125.4622286333312</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226133</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>35.81807017822204</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.52765191974287</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>88.97013061372081</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.4416264452428</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,7 +959,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>320.7426727145037</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226133</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>35.13685922633105</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1072,7 +1072,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.94201223779263</v>
       </c>
       <c r="X7" t="n">
-        <v>52.8087069843362</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>377.6969222390362</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>139.7363975175118</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.0664571702411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595511</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873669</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>120.7717775062212</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398891</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905902</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372798</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.7701071136281</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866636</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215419</v>
+        <v>264.5004505188455</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938731</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993883</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177856</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442494</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681707</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338911</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901696</v>
+        <v>22.54515085291659</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845443</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1585,16 +1585,16 @@
         <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326522</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.08819487882054</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.35573761503174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>47.6243825682575</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177853</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442491</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456102</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457862</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>136.9474735266305</v>
+        <v>134.254864425136</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574961</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973564974</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.57601873167806</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.72314698196047</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380019</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.22330424667931</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.97275566644657</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883871</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541075</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658268</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.8820597010386</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656592</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -4031,7 +4031,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
         <v>208.3257718879324</v>
@@ -4040,7 +4040,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006901</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.0959742198255</v>
+        <v>1336.564819441038</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198255</v>
+        <v>1336.564819441038</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198255</v>
+        <v>951.1236906577062</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>548.5401657742507</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634781</v>
+        <v>131.6457273042284</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475504</v>
+        <v>122.5233758326357</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>588.4870060424327</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>588.4870060424327</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704475</v>
+        <v>1102.08968465212</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596803</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678803</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238219</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="U2" t="n">
-        <v>1658.039288366168</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="V2" t="n">
-        <v>1658.039288366168</v>
+        <v>1733.055528520437</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.039288366168</v>
+        <v>1733.055528520437</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.586683299224</v>
+        <v>1733.055528520437</v>
       </c>
       <c r="Y2" t="n">
-        <v>872.0959742198255</v>
+        <v>1336.564819441038</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>754.564226135387</v>
+        <v>556.1927859813138</v>
       </c>
       <c r="C3" t="n">
-        <v>603.9099956954792</v>
+        <v>405.538555541406</v>
       </c>
       <c r="D3" t="n">
-        <v>473.8210283169595</v>
+        <v>275.4495881628864</v>
       </c>
       <c r="E3" t="n">
-        <v>337.3745374278472</v>
+        <v>139.0030972737741</v>
       </c>
       <c r="F3" t="n">
-        <v>212.942731310979</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>60.59507620213458</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K3" t="n">
-        <v>380.334222264361</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>863.9003081626743</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M3" t="n">
-        <v>1402.159093172768</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182861</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182861</v>
+        <v>1669.540969100521</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S3" t="n">
-        <v>2114.686057768925</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T3" t="n">
-        <v>1937.702245967834</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U3" t="n">
-        <v>1727.639102646476</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V3" t="n">
-        <v>1505.099101017543</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W3" t="n">
-        <v>1274.981855150829</v>
+        <v>1076.610414996756</v>
       </c>
       <c r="X3" t="n">
-        <v>1085.674777500841</v>
+        <v>887.3033373467679</v>
       </c>
       <c r="Y3" t="n">
-        <v>906.3605605763483</v>
+        <v>707.9891204222752</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>710.8623597192905</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="C4" t="n">
-        <v>710.8623597192905</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="D4" t="n">
-        <v>710.8623597192905</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="E4" t="n">
-        <v>555.303547578493</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="F4" t="n">
-        <v>397.9776127914659</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="G4" t="n">
-        <v>229.7235588909114</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="X4" t="n">
-        <v>710.8623597192905</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.8623597192905</v>
+        <v>331.9236069062875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>611.9653220037859</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="C5" t="n">
-        <v>450.9131740792982</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596598</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596598</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634781</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.724509032206</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465282</v>
+        <v>1706.67866860307</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465282</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964324</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398923</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102442</v>
+        <v>1566.541973461488</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070729</v>
+        <v>1195.542938429775</v>
       </c>
       <c r="X5" t="n">
-        <v>611.9653220037859</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="Y5" t="n">
-        <v>611.9653220037859</v>
+        <v>871.5604407383576</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813138</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.538555541406</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628864</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737741</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585116</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182861</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182861</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996756</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467679</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222752</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.8815018375352</v>
+        <v>692.7669044164368</v>
       </c>
       <c r="C7" t="n">
-        <v>655.8815018375352</v>
+        <v>522.561786482426</v>
       </c>
       <c r="D7" t="n">
-        <v>655.8815018375352</v>
+        <v>522.561786482426</v>
       </c>
       <c r="E7" t="n">
-        <v>500.3226896967377</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>500.3226896967377</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>332.0686357961832</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576772</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>709.2236301045415</v>
+        <v>926.8472266334537</v>
       </c>
       <c r="X7" t="n">
-        <v>655.8815018375352</v>
+        <v>692.7669044164368</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.8815018375352</v>
+        <v>692.7669044164368</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1389.648255560643</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="C8" t="n">
-        <v>1389.648255560643</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="D8" t="n">
-        <v>1004.207126777311</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>601.6236018938555</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>1790.14300127204</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="X8" t="n">
-        <v>1790.14300127204</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1790.14300127204</v>
+        <v>1985.548782066221</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.2001370995833</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>371.2001370995833</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>556.4081557908846</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1589.282783693955</v>
+        <v>1280.217232716707</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.903557343079</v>
+        <v>958.8380063658309</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>645.1931527286924</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550885</v>
+        <v>314.405902991431</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>314.405902991431</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2499.985069341891</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.332018113112</v>
+        <v>2200.782309456372</v>
       </c>
       <c r="X11" t="n">
-        <v>2242.675688192363</v>
+        <v>1933.610137215115</v>
       </c>
       <c r="Y11" t="n">
-        <v>1917.981254259158</v>
+        <v>1608.91570328191</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.202330875214</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.0345227307301</v>
+        <v>246.0576301327658</v>
       </c>
       <c r="C13" t="n">
-        <v>411.6256799429132</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7888419916217</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916217</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507884</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964278</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593277</v>
+        <v>1473.959762165096</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1342.939953493839</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236448</v>
+        <v>1179.017176808267</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245431</v>
+        <v>965.3746601963621</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915611</v>
+        <v>771.1915901633802</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689327</v>
+        <v>559.6574632407517</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689327</v>
+        <v>397.3734161699286</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.0345227307301</v>
+        <v>246.0576301327658</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1635.894626669076</v>
+        <v>1983.202823492229</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.515400318201</v>
+        <v>1661.823597141354</v>
       </c>
       <c r="D14" t="n">
-        <v>1000.870546681062</v>
+        <v>1348.178743504215</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>1017.391493766954</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572343</v>
+        <v>672.2933304431251</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914313</v>
+        <v>330.9268500773219</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>78.64007479000618</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2906.146620973753</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="W14" t="n">
-        <v>2606.943861088234</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="X14" t="n">
-        <v>2289.287531167484</v>
+        <v>2636.595727990637</v>
       </c>
       <c r="Y14" t="n">
-        <v>1964.593097234279</v>
+        <v>2311.901294057432</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>292.7837755129686</v>
+        <v>558.6374311877014</v>
       </c>
       <c r="C16" t="n">
-        <v>292.7837755129686</v>
+        <v>460.2285883998845</v>
       </c>
       <c r="D16" t="n">
-        <v>208.9469375616771</v>
+        <v>376.391750448593</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616771</v>
+        <v>292.6292134539893</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131561</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131561</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208439</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138157</v>
+        <v>999.6269248138155</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126308</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457729</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>793.964469812791</v>
+        <v>905.7825322771339</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901624</v>
+        <v>694.2484053545053</v>
       </c>
       <c r="X16" t="n">
-        <v>444.0995615501315</v>
+        <v>558.6374311877014</v>
       </c>
       <c r="Y16" t="n">
-        <v>292.7837755129686</v>
+        <v>558.6374311877014</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
@@ -5507,7 +5507,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6026,10 +6026,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1084.690231197904</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6145,16 +6145,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
         <v>812.1990332879427</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1645.563044338376</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835474</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230637</v>
+        <v>614.247410401915</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1219.219822695427</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786173</v>
+        <v>1765.220722740008</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150705</v>
+        <v>2293.03200637747</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770104</v>
+        <v>2844.723727844781</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901626</v>
+        <v>3192.911219976303</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.73941204771</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.67136769297</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404846</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237468</v>
+        <v>267.6713584245248</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652528</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546511</v>
+        <v>182.6248332597512</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407222</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431939</v>
+        <v>86.73045008374169</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>225.4160927170925</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>501.1958531658754</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465401</v>
+        <v>799.1395520791225</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041682</v>
+        <v>982.3291861103316</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1256.686073727023</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1376.562239503601</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250156</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395536</v>
+        <v>835.7257283273653</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000956</v>
+        <v>666.3144371400684</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124432</v>
+        <v>546.153225804577</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584509</v>
+        <v>436.9602755027458</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N36" t="n">
-        <v>1634.317313094942</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,10 +7330,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229942</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222413</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
         <v>442.7178209184696</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,13 +7448,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,19 +7570,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7685,7 +7685,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7807,22 +7807,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>343.1485770624437</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321653</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>266.1293161394364</v>
+        <v>667.9090757920138</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>99.71659552260562</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837499</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886046</v>
+        <v>399.6446499995766</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431186</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321653</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>575.4067826843257</v>
+        <v>667.9090757920138</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>335.0568768916725</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837499</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801725</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>574.7607069788136</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2818744604613</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9492,7 +9492,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>199.9106794075975</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10440,7 +10440,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>228.1998931286865</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>199.9106794075977</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>189.7366275945459</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.7701071136281</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.607428808785</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>49.97931610269637</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465767</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456104</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>29.03851622610033</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001149</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.7144332979707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372795</v>
+        <v>49.51969572869619</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362807</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>219.9830462405274</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599388</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465764</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681704</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338909</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23.71373307348431</v>
+        <v>26.40634217497887</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761101.3333126189</v>
+        <v>760499.7856988586</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761101.3333126189</v>
+        <v>760499.7856988586</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679180.5820243553</v>
+        <v>679180.5820243555</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679180.5820243555</v>
+        <v>679180.5820243554</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>522963.3164707345</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707344</v>
       </c>
       <c r="E2" t="n">
-        <v>462141.1679307612</v>
+        <v>462141.1679307614</v>
       </c>
       <c r="F2" t="n">
         <v>462141.1679307611</v>
       </c>
       <c r="G2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="H2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.316470735</v>
       </c>
       <c r="I2" t="n">
         <v>522963.3164707349</v>
       </c>
       <c r="J2" t="n">
-        <v>522963.316470735</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="K2" t="n">
         <v>522963.3164707347</v>
       </c>
       <c r="L2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="M2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.316470735</v>
       </c>
       <c r="N2" t="n">
-        <v>522963.3164707348</v>
+        <v>522963.316470735</v>
       </c>
       <c r="O2" t="n">
         <v>522963.3164707349</v>
       </c>
       <c r="P2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.316470735</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062165</v>
+        <v>22558.42953401375</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668202</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.32553668201</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539701</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962292</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805093</v>
+        <v>99893.08150805096</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805093</v>
+        <v>99893.08150805096</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85128.56068469808</v>
+        <v>88878.45888523279</v>
       </c>
       <c r="C6" t="n">
-        <v>267333.5089765541</v>
+        <v>262737.1159192877</v>
       </c>
       <c r="D6" t="n">
-        <v>261317.7073187811</v>
+        <v>253581.4180953888</v>
       </c>
       <c r="E6" t="n">
-        <v>196939.5052488253</v>
+        <v>196729.7737021358</v>
       </c>
       <c r="F6" t="n">
-        <v>309062.0667228697</v>
+        <v>308852.33517618</v>
       </c>
       <c r="G6" t="n">
-        <v>269716.2236189</v>
+        <v>269716.2236189001</v>
       </c>
       <c r="H6" t="n">
-        <v>317141.549155582</v>
+        <v>317141.5491555821</v>
       </c>
       <c r="I6" t="n">
         <v>317141.5491555821</v>
       </c>
       <c r="J6" t="n">
-        <v>104099.6315582966</v>
+        <v>110615.9167128696</v>
       </c>
       <c r="K6" t="n">
-        <v>310901.7807527989</v>
+        <v>310901.7807527988</v>
       </c>
       <c r="L6" t="n">
-        <v>255719.1918181778</v>
+        <v>251670.3546077051</v>
       </c>
       <c r="M6" t="n">
-        <v>274940.7196959592</v>
+        <v>273889.0246847709</v>
       </c>
       <c r="N6" t="n">
-        <v>317141.5491555819</v>
+        <v>317141.5491555821</v>
       </c>
       <c r="O6" t="n">
         <v>289373.8551128109</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293128</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.28165692085253</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.28165692085251</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924627</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551362</v>
+        <v>17.58004954287424</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.28165692085253</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>59.28165692085251</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>240.6322921436399</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,22 +27427,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>127.7329736364162</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343818</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>97.7633001509078</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>131.3961136083781</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>142.7693883811259</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,19 +27616,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>229.8021200368559</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>64.81540630177005</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343818</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>185.1777423863126</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>264.5550858103415</v>
       </c>
       <c r="X7" t="n">
-        <v>178.9308120105105</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.889795256462776</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>272.9890965678102</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,10 +27910,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>65.81448340128196</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473184</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="17">
@@ -28743,16 +28743,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.636002634527912</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,19 +29217,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.71049010668813</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901124</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,28 +29533,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566875</v>
+        <v>43.49509683159596</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455030868</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254432</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30171,25 +30171,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668825</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30642,22 +30642,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30879,25 +30879,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>189.900407331952</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434438</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>117.0108248016522</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>17.27213818927226</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434438</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.695742434438</v>
+        <v>314.2725371454099</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N5" t="n">
-        <v>426.2882913465415</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>185.4930394675761</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.695742434438</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260058</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>482.0731480899247</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>467.8947524111493</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257277</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815418</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167518</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696906</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318107</v>
@@ -35586,7 +35586,7 @@
         <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488432</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>126.7230387724861</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>220.7505244816469</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047975</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>107.2231205187086</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,19 +37069,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974484</v>
+        <v>406.1035372633756</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273748</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>135.5123342397976</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791168</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>159.4555122371187</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947302</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875031</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>107.2231205187088</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529181</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,16 +38184,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
